--- a/pandas_df/5movies-translated-from-json.xlsx
+++ b/pandas_df/5movies-translated-from-json.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,595 +436,575 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Genres</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Genres</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Country</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Content Rating</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Content Rating</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>Aspect Ratio</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Aspect Ratio</t>
+          <t>Budget</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Budget</t>
+          <t>Gross Earnings</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Gross Earnings</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Actor 1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Actor 1</t>
+          <t>Actor 2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Actor 2</t>
+          <t>Actor 3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Actor 3</t>
+          <t>Facebook Likes - Director</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Likes - Director</t>
+          <t>Facebook Likes - Actor 1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Likes - Actor 1</t>
+          <t>Facebook Likes - Actor 2</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Likes - Actor 2</t>
+          <t>Facebook Likes - Actor 3</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Likes - Actor 3</t>
+          <t>Facebook Likes - cast Total</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Likes - cast Total</t>
+          <t>Facebook likes - Movie</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Facebook likes - Movie</t>
+          <t>Facenumber in posters</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Facenumber in posters</t>
+          <t>User Votes</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>User Votes</t>
+          <t>Reviews by Users</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Reviews by Users</t>
+          <t>Reviews by Crtiics</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Reviews by Crtiics</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>IMDB Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Intolerance: Love's Struggle Throughout the Ages </t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
         <v>1916</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Drama|History|War</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>Not Rated</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>123</v>
+      </c>
       <c r="H2" t="n">
-        <v>123</v>
+        <v>1.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J2" t="n">
         <v>385907</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>D.W. Griffith</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>D.W. Griffith</t>
+          <t>Lillian Gish</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Lillian Gish</t>
+          <t>Mae Marsh</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Mae Marsh</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>Walter Long</t>
         </is>
       </c>
+      <c r="O2" t="n">
+        <v>204</v>
+      </c>
       <c r="P2" t="n">
-        <v>204</v>
+        <v>436</v>
       </c>
       <c r="Q2" t="n">
-        <v>436</v>
+        <v>22</v>
       </c>
       <c r="R2" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="T2" t="n">
-        <v>481</v>
+        <v>691</v>
       </c>
       <c r="U2" t="n">
-        <v>691</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>10718</v>
       </c>
       <c r="W2" t="n">
-        <v>10718</v>
+        <v>88</v>
       </c>
       <c r="X2" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Over the Hill to the Poorhouse </t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>1920</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Crime|Drama</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>110</v>
+      </c>
       <c r="H3" t="n">
-        <v>110</v>
+        <v>1.33</v>
       </c>
       <c r="I3" t="n">
-        <v>1.33</v>
+        <v>100000</v>
       </c>
       <c r="J3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="K3" t="n">
         <v>3000000</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Harry F. Millarde</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Harry F. Millarde</t>
+          <t>Stephen Carr</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Stephen Carr</t>
+          <t>Johnnie Walker</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Johnnie Walker</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
           <t>Mary Carr</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="T3" t="n">
-        <v>4</v>
-      </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
         <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">The Big Parade </t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>1925</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Drama|Romance|War</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>Not Rated</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>151</v>
+      </c>
       <c r="H4" t="n">
-        <v>151</v>
+        <v>1.33</v>
       </c>
       <c r="I4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J4" t="n">
         <v>245000</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>King Vidor</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>King Vidor</t>
+          <t>John Gilbert</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>John Gilbert</t>
+          <t>Renée Adorée</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Renée Adorée</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
           <t>Claire Adams</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>54</v>
+      </c>
       <c r="P4" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="Q4" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="R4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="T4" t="n">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="U4" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4849</v>
       </c>
       <c r="W4" t="n">
-        <v>4849</v>
+        <v>45</v>
       </c>
       <c r="X4" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Y4" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z4" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Metropolis </t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>1927</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Drama|Sci-Fi</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Drama|Sci-Fi</t>
+          <t>German</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>Not Rated</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>145</v>
+      </c>
       <c r="H5" t="n">
-        <v>145</v>
+        <v>1.33</v>
       </c>
       <c r="I5" t="n">
-        <v>1.33</v>
+        <v>6000000</v>
       </c>
       <c r="J5" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="K5" t="n">
         <v>26435</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Fritz Lang</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Fritz Lang</t>
+          <t>Brigitte Helm</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Brigitte Helm</t>
+          <t>Gustav Fröhlich</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Gustav Fröhlich</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
           <t>Rudolf Klein-Rogge</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>756</v>
+      </c>
       <c r="P5" t="n">
-        <v>756</v>
+        <v>136</v>
       </c>
       <c r="Q5" t="n">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="R5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S5" t="n">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="T5" t="n">
-        <v>203</v>
+        <v>12000</v>
       </c>
       <c r="U5" t="n">
-        <v>12000</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>111841</v>
       </c>
       <c r="W5" t="n">
-        <v>111841</v>
+        <v>413</v>
       </c>
       <c r="X5" t="n">
-        <v>413</v>
+        <v>260</v>
       </c>
       <c r="Y5" t="n">
-        <v>260</v>
-      </c>
-      <c r="Z5" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Pandora's Box </t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="B6" t="n">
         <v>1929</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Crime|Drama|Romance</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Crime|Drama|Romance</t>
+          <t>German</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>Not Rated</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>110</v>
+      </c>
       <c r="H6" t="n">
-        <v>110</v>
-      </c>
-      <c r="I6" t="n">
         <v>1.33</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>9950</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Georg Wilhelm Pabst</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Georg Wilhelm Pabst</t>
+          <t>Louise Brooks</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Louise Brooks</t>
+          <t>Francis Lederer</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Francis Lederer</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
           <t>Fritz Kortner</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>21</v>
+      </c>
       <c r="P6" t="n">
-        <v>21</v>
+        <v>426</v>
       </c>
       <c r="Q6" t="n">
-        <v>426</v>
+        <v>20</v>
       </c>
       <c r="R6" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>455</v>
       </c>
       <c r="T6" t="n">
-        <v>455</v>
+        <v>926</v>
       </c>
       <c r="U6" t="n">
-        <v>926</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>7431</v>
       </c>
       <c r="W6" t="n">
-        <v>7431</v>
+        <v>84</v>
       </c>
       <c r="X6" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z6" t="n">
         <v>8</v>
       </c>
     </row>
